--- a/japan.tourists.number.xlsx
+++ b/japan.tourists.number.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154:F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3907,6 +3907,9 @@
       <c r="A161" s="1">
         <v>42095</v>
       </c>
+      <c r="B161" s="2">
+        <v>405800</v>
+      </c>
       <c r="C161">
         <v>30</v>
       </c>
@@ -3936,6 +3939,12 @@
       <c r="D162">
         <v>3</v>
       </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
       <c r="G162" s="4" t="s">
         <v>21</v>
       </c>
@@ -3953,6 +3962,12 @@
       <c r="D163">
         <v>3</v>
       </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
       <c r="G163" s="4" t="s">
         <v>21</v>
       </c>
@@ -3970,6 +3985,12 @@
       <c r="D164">
         <v>0</v>
       </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
       <c r="G164" s="4" t="s">
         <v>21</v>
       </c>
@@ -3987,6 +4008,12 @@
       <c r="D165">
         <v>0</v>
       </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
       <c r="G165" s="4" t="s">
         <v>21</v>
       </c>
@@ -4004,6 +4031,12 @@
       <c r="D166">
         <v>2</v>
       </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
       <c r="G166" s="4" t="s">
         <v>21</v>
       </c>
@@ -4021,6 +4054,12 @@
       <c r="D167">
         <v>0</v>
       </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
       <c r="G167" s="4" t="s">
         <v>21</v>
       </c>
@@ -4038,6 +4077,12 @@
       <c r="D168">
         <v>0</v>
       </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
       <c r="G168" s="4" t="s">
         <v>21</v>
       </c>
@@ -4053,6 +4098,12 @@
         <v>31</v>
       </c>
       <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
         <v>0</v>
       </c>
       <c r="G169" s="4" t="s">

--- a/japan.tourists.number.xlsx
+++ b/japan.tourists.number.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="26">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,16 +101,25 @@
   <si>
     <t>2017</t>
   </si>
+  <si>
+    <t>taiwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +172,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +235,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -527,15 +543,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154:F157"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="N146" sqref="N146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="10" width="8.875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +579,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>37257</v>
       </c>
@@ -581,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>37288</v>
       </c>
@@ -601,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>37316</v>
       </c>
@@ -621,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>37347</v>
       </c>
@@ -641,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>37377</v>
       </c>
@@ -661,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>37408</v>
       </c>
@@ -681,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>37438</v>
       </c>
@@ -701,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>37469</v>
       </c>
@@ -721,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>37500</v>
       </c>
@@ -741,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>37530</v>
       </c>
@@ -761,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>37561</v>
       </c>
@@ -781,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>37591</v>
       </c>
@@ -801,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>37622</v>
       </c>
@@ -821,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>37653</v>
       </c>
@@ -841,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>37681</v>
       </c>
@@ -1821,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>39173</v>
       </c>
@@ -1841,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>39203</v>
       </c>
@@ -1861,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>39234</v>
       </c>
@@ -1881,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>39264</v>
       </c>
@@ -1901,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>39295</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>39326</v>
       </c>
@@ -1941,7 +1966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>39356</v>
       </c>
@@ -1961,7 +1986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>39387</v>
       </c>
@@ -1981,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>39417</v>
       </c>
@@ -2001,7 +2026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>39448</v>
       </c>
@@ -2021,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>39479</v>
       </c>
@@ -2041,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>39508</v>
       </c>
@@ -2061,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>39539</v>
       </c>
@@ -2081,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>39569</v>
       </c>
@@ -2101,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>39600</v>
       </c>
@@ -2121,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>39630</v>
       </c>
@@ -2140,8 +2165,14 @@
       <c r="H80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="2">
+        <v>30323</v>
+      </c>
+      <c r="J80" s="2">
+        <v>101061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>39661</v>
       </c>
@@ -2160,8 +2191,14 @@
       <c r="H81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="2">
+        <v>29281</v>
+      </c>
+      <c r="J81" s="2">
+        <v>115042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>39692</v>
       </c>
@@ -2180,8 +2217,14 @@
       <c r="H82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="2">
+        <v>33251</v>
+      </c>
+      <c r="J82" s="2">
+        <v>112988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>39722</v>
       </c>
@@ -2200,8 +2243,14 @@
       <c r="H83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="2">
+        <v>34780</v>
+      </c>
+      <c r="J83" s="2">
+        <v>104710</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>39753</v>
       </c>
@@ -2220,8 +2269,14 @@
       <c r="H84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="2">
+        <v>35238</v>
+      </c>
+      <c r="J84" s="2">
+        <v>88916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>39783</v>
       </c>
@@ -2240,8 +2295,14 @@
       <c r="H85">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="2">
+        <v>35114</v>
+      </c>
+      <c r="J85" s="2">
+        <v>85921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>39814</v>
       </c>
@@ -2260,8 +2321,14 @@
       <c r="H86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="2">
+        <v>43995</v>
+      </c>
+      <c r="J86" s="2">
+        <v>93007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>39845</v>
       </c>
@@ -2280,8 +2347,14 @@
       <c r="H87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="2">
+        <v>42248</v>
+      </c>
+      <c r="J87" s="2">
+        <v>127979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>39873</v>
       </c>
@@ -2300,8 +2373,14 @@
       <c r="H88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="2">
+        <v>87002</v>
+      </c>
+      <c r="J88" s="2">
+        <v>111915</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>39904</v>
       </c>
@@ -2320,8 +2399,14 @@
       <c r="H89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="2">
+        <v>131464</v>
+      </c>
+      <c r="J89" s="2">
+        <v>107872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>39934</v>
       </c>
@@ -2340,8 +2425,14 @@
       <c r="H90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="2">
+        <v>110244</v>
+      </c>
+      <c r="J90" s="2">
+        <v>86392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>39965</v>
       </c>
@@ -2360,8 +2451,14 @@
       <c r="H91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="2">
+        <v>57472</v>
+      </c>
+      <c r="J91" s="2">
+        <v>77830</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>39995</v>
       </c>
@@ -2380,8 +2477,14 @@
       <c r="H92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="2">
+        <v>70157</v>
+      </c>
+      <c r="J92" s="2">
+        <v>107490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>40026</v>
       </c>
@@ -2400,8 +2503,14 @@
       <c r="H93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="2">
+        <v>80883</v>
+      </c>
+      <c r="J93" s="2">
+        <v>160424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>40057</v>
       </c>
@@ -2420,8 +2529,14 @@
       <c r="H94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="2">
+        <v>64386</v>
+      </c>
+      <c r="J94" s="2">
+        <v>126793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>40087</v>
       </c>
@@ -2440,8 +2555,14 @@
       <c r="H95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="2">
+        <v>78175</v>
+      </c>
+      <c r="J95" s="2">
+        <v>138898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>40118</v>
       </c>
@@ -2460,8 +2581,14 @@
       <c r="H96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="2">
+        <v>113807</v>
+      </c>
+      <c r="J96" s="2">
+        <v>102329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>40148</v>
       </c>
@@ -2480,8 +2607,14 @@
       <c r="H97">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="2">
+        <v>92290</v>
+      </c>
+      <c r="J97" s="2">
+        <v>101388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>40179</v>
       </c>
@@ -2500,8 +2633,14 @@
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="2">
+        <v>86891</v>
+      </c>
+      <c r="J98" s="2">
+        <v>91252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>40210</v>
       </c>
@@ -2520,8 +2659,14 @@
       <c r="H99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="2">
+        <v>107628</v>
+      </c>
+      <c r="J99" s="2">
+        <v>140571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>40238</v>
       </c>
@@ -2540,8 +2685,14 @@
       <c r="H100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="2">
+        <v>149617</v>
+      </c>
+      <c r="J100" s="2">
+        <v>141457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>40269</v>
       </c>
@@ -2560,8 +2711,14 @@
       <c r="H101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="2">
+        <v>180915</v>
+      </c>
+      <c r="J101" s="2">
+        <v>147680</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>40299</v>
       </c>
@@ -2580,8 +2737,14 @@
       <c r="H102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="2">
+        <v>179394</v>
+      </c>
+      <c r="J102" s="2">
+        <v>154066</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>40330</v>
       </c>
@@ -2600,8 +2763,14 @@
       <c r="H103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="2">
+        <v>135603</v>
+      </c>
+      <c r="J103" s="2">
+        <v>150119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>40360</v>
       </c>
@@ -2620,8 +2789,14 @@
       <c r="H104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="2">
+        <v>129160</v>
+      </c>
+      <c r="J104" s="2">
+        <v>195188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>40391</v>
       </c>
@@ -2640,8 +2815,14 @@
       <c r="H105">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="2">
+        <v>118616</v>
+      </c>
+      <c r="J105" s="2">
+        <v>241987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>40422</v>
       </c>
@@ -2660,8 +2841,14 @@
       <c r="H106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="2">
+        <v>105707</v>
+      </c>
+      <c r="J106" s="2">
+        <v>176196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>40452</v>
       </c>
@@ -2680,8 +2867,14 @@
       <c r="H107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="2">
+        <v>150221</v>
+      </c>
+      <c r="J107" s="2">
+        <v>181428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>40483</v>
       </c>
@@ -2700,8 +2893,14 @@
       <c r="H108">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="2">
+        <v>165065</v>
+      </c>
+      <c r="J108" s="2">
+        <v>136152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>40513</v>
       </c>
@@ -2720,8 +2919,14 @@
       <c r="H109">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="2">
+        <v>121918</v>
+      </c>
+      <c r="J109" s="2">
+        <v>119061</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>40544</v>
       </c>
@@ -2740,8 +2945,14 @@
       <c r="H110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="2">
+        <v>101354</v>
+      </c>
+      <c r="J110" s="2">
+        <v>113927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>40575</v>
       </c>
@@ -2760,8 +2971,14 @@
       <c r="H111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="2">
+        <v>115845</v>
+      </c>
+      <c r="J111" s="2">
+        <v>157019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>40603</v>
       </c>
@@ -2780,8 +2997,14 @@
       <c r="H112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="2">
+        <v>153649</v>
+      </c>
+      <c r="J112" s="2">
+        <v>163261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>40634</v>
       </c>
@@ -2800,8 +3023,14 @@
       <c r="H113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="2">
+        <v>193457</v>
+      </c>
+      <c r="J113" s="2">
+        <v>153875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>40664</v>
       </c>
@@ -2820,8 +3049,14 @@
       <c r="H114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="2">
+        <v>150479</v>
+      </c>
+      <c r="J114" s="2">
+        <v>152347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>40695</v>
       </c>
@@ -2840,8 +3075,14 @@
       <c r="H115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="2">
+        <v>114435</v>
+      </c>
+      <c r="J115" s="2">
+        <v>179508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>40725</v>
       </c>
@@ -2860,8 +3101,14 @@
       <c r="H116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="2">
+        <v>135968</v>
+      </c>
+      <c r="J116" s="2">
+        <v>244573</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>40756</v>
       </c>
@@ -2880,8 +3127,14 @@
       <c r="H117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="2">
+        <v>138673</v>
+      </c>
+      <c r="J117" s="2">
+        <v>276299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>40787</v>
       </c>
@@ -2900,8 +3153,14 @@
       <c r="H118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="2">
+        <v>122574</v>
+      </c>
+      <c r="J118" s="2">
+        <v>231462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>40817</v>
       </c>
@@ -2920,8 +3179,14 @@
       <c r="H119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="2">
+        <v>163290</v>
+      </c>
+      <c r="J119" s="2">
+        <v>214681</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>40848</v>
       </c>
@@ -2940,8 +3205,14 @@
       <c r="H120">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="2">
+        <v>213144</v>
+      </c>
+      <c r="J120" s="2">
+        <v>174164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>40878</v>
       </c>
@@ -2960,8 +3231,14 @@
       <c r="H121">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="2">
+        <v>181317</v>
+      </c>
+      <c r="J121" s="2">
+        <v>159080</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>40909</v>
       </c>
@@ -2980,8 +3257,14 @@
       <c r="H122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="2">
+        <v>140432</v>
+      </c>
+      <c r="J122" s="2">
+        <v>167022</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>40940</v>
       </c>
@@ -3000,8 +3283,14 @@
       <c r="H123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="2">
+        <v>163442</v>
+      </c>
+      <c r="J123" s="2">
+        <v>173790</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>40969</v>
       </c>
@@ -3020,8 +3309,14 @@
       <c r="H124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="2">
+        <v>253205</v>
+      </c>
+      <c r="J124" s="2">
+        <v>183691</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>41000</v>
       </c>
@@ -3040,8 +3335,14 @@
       <c r="H125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="2">
+        <v>278715</v>
+      </c>
+      <c r="J125" s="2">
+        <v>222114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>41030</v>
       </c>
@@ -3060,8 +3361,14 @@
       <c r="H126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="2">
+        <v>228607</v>
+      </c>
+      <c r="J126" s="2">
+        <v>210439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>41061</v>
       </c>
@@ -3080,8 +3387,14 @@
       <c r="H127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="2">
+        <v>199642</v>
+      </c>
+      <c r="J127" s="2">
+        <v>234482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>41091</v>
       </c>
@@ -3100,8 +3413,14 @@
       <c r="H128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="2">
+        <v>235447</v>
+      </c>
+      <c r="J128" s="2">
+        <v>322917</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>41122</v>
       </c>
@@ -3120,8 +3439,14 @@
       <c r="H129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="2">
+        <v>205002</v>
+      </c>
+      <c r="J129" s="2">
+        <v>359065</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>41153</v>
       </c>
@@ -3140,8 +3465,14 @@
       <c r="H130">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="2">
+        <v>185922</v>
+      </c>
+      <c r="J130" s="2">
+        <v>283402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>41183</v>
       </c>
@@ -3160,8 +3491,14 @@
       <c r="H131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="2">
+        <v>224872</v>
+      </c>
+      <c r="J131" s="2">
+        <v>279440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>41214</v>
       </c>
@@ -3180,8 +3517,14 @@
       <c r="H132">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="2">
+        <v>242967</v>
+      </c>
+      <c r="J132" s="2">
+        <v>204533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>41244</v>
       </c>
@@ -3200,8 +3543,14 @@
       <c r="H133">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="2">
+        <v>228175</v>
+      </c>
+      <c r="J133" s="2">
+        <v>195997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>41275</v>
       </c>
@@ -3226,8 +3575,14 @@
       <c r="H134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="2">
+        <v>195388</v>
+      </c>
+      <c r="J134" s="2">
+        <v>196371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>41306</v>
       </c>
@@ -3252,8 +3607,14 @@
       <c r="H135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="2">
+        <v>216021</v>
+      </c>
+      <c r="J135" s="2">
+        <v>249698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>41334</v>
       </c>
@@ -3278,8 +3639,14 @@
       <c r="H136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="2">
+        <v>269455</v>
+      </c>
+      <c r="J136" s="2">
+        <v>276479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>41365</v>
       </c>
@@ -3304,8 +3671,14 @@
       <c r="H137">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="2">
+        <v>298059</v>
+      </c>
+      <c r="J137" s="2">
+        <v>335069</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>41395</v>
       </c>
@@ -3330,8 +3703,14 @@
       <c r="H138">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="2">
+        <v>217260</v>
+      </c>
+      <c r="J138" s="2">
+        <v>278723</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>41426</v>
       </c>
@@ -3356,8 +3735,14 @@
       <c r="H139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" s="2">
+        <v>220894</v>
+      </c>
+      <c r="J139" s="2">
+        <v>399031</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>41456</v>
       </c>
@@ -3382,8 +3767,14 @@
       <c r="H140">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" s="2">
+        <v>248683</v>
+      </c>
+      <c r="J140" s="2">
+        <v>569787</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>41487</v>
       </c>
@@ -3408,8 +3799,14 @@
       <c r="H141">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="2">
+        <v>240490</v>
+      </c>
+      <c r="J141" s="2">
+        <v>642258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>41518</v>
       </c>
@@ -3434,8 +3831,14 @@
       <c r="H142">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" s="2">
+        <v>270788</v>
+      </c>
+      <c r="J142" s="2">
+        <v>483518</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>41548</v>
       </c>
@@ -3460,8 +3863,14 @@
       <c r="H143">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" s="2">
+        <v>221004</v>
+      </c>
+      <c r="J143" s="2">
+        <v>343273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>41579</v>
       </c>
@@ -3486,8 +3895,14 @@
       <c r="H144">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="2">
+        <v>236031</v>
+      </c>
+      <c r="J144" s="2">
+        <v>276428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>41609</v>
       </c>
@@ -3512,8 +3927,14 @@
       <c r="H145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="2">
+        <v>240629</v>
+      </c>
+      <c r="J145" s="2">
+        <v>276234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>41640</v>
       </c>
@@ -3538,8 +3959,14 @@
       <c r="H146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="2">
+        <v>268861</v>
+      </c>
+      <c r="J146" s="2">
+        <v>296708</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>41671</v>
       </c>
@@ -3564,8 +3991,14 @@
       <c r="H147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="2">
+        <v>305390</v>
+      </c>
+      <c r="J147" s="2">
+        <v>326295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>41699</v>
       </c>
@@ -3590,8 +4023,14 @@
       <c r="H148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="2">
+        <v>361470</v>
+      </c>
+      <c r="J148" s="2">
+        <v>423768</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>41730</v>
       </c>
@@ -3616,8 +4055,14 @@
       <c r="H149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" s="2">
+        <v>377197</v>
+      </c>
+      <c r="J149" s="2">
+        <v>531947</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>41760</v>
       </c>
@@ -3642,8 +4087,14 @@
       <c r="H150">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" s="2">
+        <v>333845</v>
+      </c>
+      <c r="J150" s="2">
+        <v>517031</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>41791</v>
       </c>
@@ -3668,8 +4119,14 @@
       <c r="H151">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" s="2">
+        <v>315166</v>
+      </c>
+      <c r="J151" s="2">
+        <v>573852</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>41821</v>
       </c>
@@ -3694,8 +4151,14 @@
       <c r="H152">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" s="2">
+        <v>343709</v>
+      </c>
+      <c r="J152" s="2">
+        <v>692053</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>41852</v>
       </c>
@@ -3720,8 +4183,14 @@
       <c r="H153">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" s="2">
+        <v>312549</v>
+      </c>
+      <c r="J153" s="2">
+        <v>757683</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>41883</v>
       </c>
@@ -3746,8 +4215,14 @@
       <c r="H154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" s="2">
+        <v>341729</v>
+      </c>
+      <c r="J154" s="2">
+        <v>564078</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>41913</v>
       </c>
@@ -3772,8 +4247,14 @@
       <c r="H155">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" s="2">
+        <v>347778</v>
+      </c>
+      <c r="J155" s="2">
+        <v>562278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>41944</v>
       </c>
@@ -3798,8 +4279,14 @@
       <c r="H156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" s="2">
+        <v>332517</v>
+      </c>
+      <c r="J156" s="2">
+        <v>460671</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>41974</v>
       </c>
@@ -3824,8 +4311,14 @@
       <c r="H157">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" s="2">
+        <v>346941</v>
+      </c>
+      <c r="J157" s="2">
+        <v>420501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>42005</v>
       </c>
@@ -3850,8 +4343,14 @@
       <c r="H158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" s="2">
+        <v>321458</v>
+      </c>
+      <c r="J158" s="2">
+        <v>394345</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>42036</v>
       </c>
@@ -3876,8 +4375,14 @@
       <c r="H159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" s="2">
+        <v>406239</v>
+      </c>
+      <c r="J159" s="2">
+        <v>516787</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>42064</v>
       </c>
@@ -3902,8 +4407,11 @@
       <c r="H160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="J160" s="5">
+        <v>515130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>42095</v>
       </c>
@@ -3928,8 +4436,11 @@
       <c r="H161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="J161" s="5">
+        <v>641610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>42125</v>
       </c>
@@ -3952,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>42156</v>
       </c>
@@ -3975,7 +4486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>42186</v>
       </c>
@@ -3998,7 +4509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>42217</v>
       </c>
@@ -4021,7 +4532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>42248</v>
       </c>
@@ -4044,7 +4555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>42278</v>
       </c>
@@ -4067,7 +4578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>42309</v>
       </c>
@@ -4090,7 +4601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>42339</v>
       </c>
@@ -4113,7 +4624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>42370</v>
       </c>
@@ -4124,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>42401</v>
       </c>
@@ -4135,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>42430</v>
       </c>
@@ -4146,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>42461</v>
       </c>
@@ -4157,7 +4668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>42491</v>
       </c>
@@ -4168,7 +4679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>42522</v>
       </c>
@@ -4179,7 +4690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>42552</v>
       </c>
@@ -4257,6 +4768,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="J2:L182">
+    <sortCondition ref="J2:J182"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/japan.tourists.number.xlsx
+++ b/japan.tourists.number.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="N146" sqref="N146"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:XFD162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4443,6 +4443,9 @@
     <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>42125</v>
+      </c>
+      <c r="B162" s="2">
+        <v>387200</v>
       </c>
       <c r="C162">
         <v>31</v>

--- a/japan.tourists.number.xlsx
+++ b/japan.tourists.number.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="26">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,16 +101,25 @@
   <si>
     <t>2017</t>
   </si>
+  <si>
+    <t>taiwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +172,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +235,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -527,15 +543,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:XFD162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="10" width="8.875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +579,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>37257</v>
       </c>
@@ -581,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>37288</v>
       </c>
@@ -601,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>37316</v>
       </c>
@@ -621,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>37347</v>
       </c>
@@ -641,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>37377</v>
       </c>
@@ -661,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>37408</v>
       </c>
@@ -681,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>37438</v>
       </c>
@@ -701,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>37469</v>
       </c>
@@ -721,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>37500</v>
       </c>
@@ -741,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>37530</v>
       </c>
@@ -761,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>37561</v>
       </c>
@@ -781,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>37591</v>
       </c>
@@ -801,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>37622</v>
       </c>
@@ -821,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>37653</v>
       </c>
@@ -841,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>37681</v>
       </c>
@@ -1821,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>39173</v>
       </c>
@@ -1841,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>39203</v>
       </c>
@@ -1861,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>39234</v>
       </c>
@@ -1881,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>39264</v>
       </c>
@@ -1901,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>39295</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>39326</v>
       </c>
@@ -1941,7 +1966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>39356</v>
       </c>
@@ -1961,7 +1986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>39387</v>
       </c>
@@ -1981,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>39417</v>
       </c>
@@ -2001,7 +2026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>39448</v>
       </c>
@@ -2021,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>39479</v>
       </c>
@@ -2041,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>39508</v>
       </c>
@@ -2061,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>39539</v>
       </c>
@@ -2081,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>39569</v>
       </c>
@@ -2101,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>39600</v>
       </c>
@@ -2121,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>39630</v>
       </c>
@@ -2140,8 +2165,14 @@
       <c r="H80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="2">
+        <v>30323</v>
+      </c>
+      <c r="J80" s="2">
+        <v>101061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>39661</v>
       </c>
@@ -2160,8 +2191,14 @@
       <c r="H81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="2">
+        <v>29281</v>
+      </c>
+      <c r="J81" s="2">
+        <v>115042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>39692</v>
       </c>
@@ -2180,8 +2217,14 @@
       <c r="H82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="2">
+        <v>33251</v>
+      </c>
+      <c r="J82" s="2">
+        <v>112988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>39722</v>
       </c>
@@ -2200,8 +2243,14 @@
       <c r="H83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="2">
+        <v>34780</v>
+      </c>
+      <c r="J83" s="2">
+        <v>104710</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>39753</v>
       </c>
@@ -2220,8 +2269,14 @@
       <c r="H84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="2">
+        <v>35238</v>
+      </c>
+      <c r="J84" s="2">
+        <v>88916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>39783</v>
       </c>
@@ -2240,8 +2295,14 @@
       <c r="H85">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="2">
+        <v>35114</v>
+      </c>
+      <c r="J85" s="2">
+        <v>85921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>39814</v>
       </c>
@@ -2260,8 +2321,14 @@
       <c r="H86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="2">
+        <v>43995</v>
+      </c>
+      <c r="J86" s="2">
+        <v>93007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>39845</v>
       </c>
@@ -2280,8 +2347,14 @@
       <c r="H87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="2">
+        <v>42248</v>
+      </c>
+      <c r="J87" s="2">
+        <v>127979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>39873</v>
       </c>
@@ -2300,8 +2373,14 @@
       <c r="H88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="2">
+        <v>87002</v>
+      </c>
+      <c r="J88" s="2">
+        <v>111915</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>39904</v>
       </c>
@@ -2320,8 +2399,14 @@
       <c r="H89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="2">
+        <v>131464</v>
+      </c>
+      <c r="J89" s="2">
+        <v>107872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>39934</v>
       </c>
@@ -2340,8 +2425,14 @@
       <c r="H90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="2">
+        <v>110244</v>
+      </c>
+      <c r="J90" s="2">
+        <v>86392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>39965</v>
       </c>
@@ -2360,8 +2451,14 @@
       <c r="H91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="2">
+        <v>57472</v>
+      </c>
+      <c r="J91" s="2">
+        <v>77830</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>39995</v>
       </c>
@@ -2380,8 +2477,14 @@
       <c r="H92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="2">
+        <v>70157</v>
+      </c>
+      <c r="J92" s="2">
+        <v>107490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>40026</v>
       </c>
@@ -2400,8 +2503,14 @@
       <c r="H93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="2">
+        <v>80883</v>
+      </c>
+      <c r="J93" s="2">
+        <v>160424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>40057</v>
       </c>
@@ -2420,8 +2529,14 @@
       <c r="H94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="2">
+        <v>64386</v>
+      </c>
+      <c r="J94" s="2">
+        <v>126793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>40087</v>
       </c>
@@ -2440,8 +2555,14 @@
       <c r="H95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="2">
+        <v>78175</v>
+      </c>
+      <c r="J95" s="2">
+        <v>138898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>40118</v>
       </c>
@@ -2460,8 +2581,14 @@
       <c r="H96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="2">
+        <v>113807</v>
+      </c>
+      <c r="J96" s="2">
+        <v>102329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>40148</v>
       </c>
@@ -2480,8 +2607,14 @@
       <c r="H97">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="2">
+        <v>92290</v>
+      </c>
+      <c r="J97" s="2">
+        <v>101388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>40179</v>
       </c>
@@ -2500,8 +2633,14 @@
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="2">
+        <v>86891</v>
+      </c>
+      <c r="J98" s="2">
+        <v>91252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>40210</v>
       </c>
@@ -2520,8 +2659,14 @@
       <c r="H99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="2">
+        <v>107628</v>
+      </c>
+      <c r="J99" s="2">
+        <v>140571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>40238</v>
       </c>
@@ -2540,8 +2685,14 @@
       <c r="H100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="2">
+        <v>149617</v>
+      </c>
+      <c r="J100" s="2">
+        <v>141457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>40269</v>
       </c>
@@ -2560,8 +2711,14 @@
       <c r="H101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="2">
+        <v>180915</v>
+      </c>
+      <c r="J101" s="2">
+        <v>147680</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>40299</v>
       </c>
@@ -2580,8 +2737,14 @@
       <c r="H102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="2">
+        <v>179394</v>
+      </c>
+      <c r="J102" s="2">
+        <v>154066</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>40330</v>
       </c>
@@ -2600,8 +2763,14 @@
       <c r="H103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="2">
+        <v>135603</v>
+      </c>
+      <c r="J103" s="2">
+        <v>150119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>40360</v>
       </c>
@@ -2620,8 +2789,14 @@
       <c r="H104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="2">
+        <v>129160</v>
+      </c>
+      <c r="J104" s="2">
+        <v>195188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>40391</v>
       </c>
@@ -2640,8 +2815,14 @@
       <c r="H105">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="2">
+        <v>118616</v>
+      </c>
+      <c r="J105" s="2">
+        <v>241987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>40422</v>
       </c>
@@ -2660,8 +2841,14 @@
       <c r="H106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="2">
+        <v>105707</v>
+      </c>
+      <c r="J106" s="2">
+        <v>176196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>40452</v>
       </c>
@@ -2680,8 +2867,14 @@
       <c r="H107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="2">
+        <v>150221</v>
+      </c>
+      <c r="J107" s="2">
+        <v>181428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>40483</v>
       </c>
@@ -2700,8 +2893,14 @@
       <c r="H108">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="2">
+        <v>165065</v>
+      </c>
+      <c r="J108" s="2">
+        <v>136152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>40513</v>
       </c>
@@ -2720,8 +2919,14 @@
       <c r="H109">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="2">
+        <v>121918</v>
+      </c>
+      <c r="J109" s="2">
+        <v>119061</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>40544</v>
       </c>
@@ -2740,8 +2945,14 @@
       <c r="H110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="2">
+        <v>101354</v>
+      </c>
+      <c r="J110" s="2">
+        <v>113927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>40575</v>
       </c>
@@ -2760,8 +2971,14 @@
       <c r="H111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="2">
+        <v>115845</v>
+      </c>
+      <c r="J111" s="2">
+        <v>157019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>40603</v>
       </c>
@@ -2780,8 +2997,14 @@
       <c r="H112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="2">
+        <v>153649</v>
+      </c>
+      <c r="J112" s="2">
+        <v>163261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>40634</v>
       </c>
@@ -2800,8 +3023,14 @@
       <c r="H113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="2">
+        <v>193457</v>
+      </c>
+      <c r="J113" s="2">
+        <v>153875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>40664</v>
       </c>
@@ -2820,8 +3049,14 @@
       <c r="H114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="2">
+        <v>150479</v>
+      </c>
+      <c r="J114" s="2">
+        <v>152347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>40695</v>
       </c>
@@ -2840,8 +3075,14 @@
       <c r="H115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="2">
+        <v>114435</v>
+      </c>
+      <c r="J115" s="2">
+        <v>179508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>40725</v>
       </c>
@@ -2860,8 +3101,14 @@
       <c r="H116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="2">
+        <v>135968</v>
+      </c>
+      <c r="J116" s="2">
+        <v>244573</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>40756</v>
       </c>
@@ -2880,8 +3127,14 @@
       <c r="H117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="2">
+        <v>138673</v>
+      </c>
+      <c r="J117" s="2">
+        <v>276299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>40787</v>
       </c>
@@ -2900,8 +3153,14 @@
       <c r="H118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="2">
+        <v>122574</v>
+      </c>
+      <c r="J118" s="2">
+        <v>231462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>40817</v>
       </c>
@@ -2920,8 +3179,14 @@
       <c r="H119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="2">
+        <v>163290</v>
+      </c>
+      <c r="J119" s="2">
+        <v>214681</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>40848</v>
       </c>
@@ -2940,8 +3205,14 @@
       <c r="H120">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="2">
+        <v>213144</v>
+      </c>
+      <c r="J120" s="2">
+        <v>174164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>40878</v>
       </c>
@@ -2960,8 +3231,14 @@
       <c r="H121">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="2">
+        <v>181317</v>
+      </c>
+      <c r="J121" s="2">
+        <v>159080</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>40909</v>
       </c>
@@ -2980,8 +3257,14 @@
       <c r="H122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="2">
+        <v>140432</v>
+      </c>
+      <c r="J122" s="2">
+        <v>167022</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>40940</v>
       </c>
@@ -3000,8 +3283,14 @@
       <c r="H123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="2">
+        <v>163442</v>
+      </c>
+      <c r="J123" s="2">
+        <v>173790</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>40969</v>
       </c>
@@ -3020,8 +3309,14 @@
       <c r="H124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="2">
+        <v>253205</v>
+      </c>
+      <c r="J124" s="2">
+        <v>183691</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>41000</v>
       </c>
@@ -3040,8 +3335,14 @@
       <c r="H125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="2">
+        <v>278715</v>
+      </c>
+      <c r="J125" s="2">
+        <v>222114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>41030</v>
       </c>
@@ -3060,8 +3361,14 @@
       <c r="H126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="2">
+        <v>228607</v>
+      </c>
+      <c r="J126" s="2">
+        <v>210439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>41061</v>
       </c>
@@ -3080,8 +3387,14 @@
       <c r="H127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="2">
+        <v>199642</v>
+      </c>
+      <c r="J127" s="2">
+        <v>234482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>41091</v>
       </c>
@@ -3100,8 +3413,14 @@
       <c r="H128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="2">
+        <v>235447</v>
+      </c>
+      <c r="J128" s="2">
+        <v>322917</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>41122</v>
       </c>
@@ -3120,8 +3439,14 @@
       <c r="H129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="2">
+        <v>205002</v>
+      </c>
+      <c r="J129" s="2">
+        <v>359065</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>41153</v>
       </c>
@@ -3140,8 +3465,14 @@
       <c r="H130">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="2">
+        <v>185922</v>
+      </c>
+      <c r="J130" s="2">
+        <v>283402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>41183</v>
       </c>
@@ -3160,8 +3491,14 @@
       <c r="H131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="2">
+        <v>224872</v>
+      </c>
+      <c r="J131" s="2">
+        <v>279440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>41214</v>
       </c>
@@ -3180,8 +3517,14 @@
       <c r="H132">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="2">
+        <v>242967</v>
+      </c>
+      <c r="J132" s="2">
+        <v>204533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>41244</v>
       </c>
@@ -3200,8 +3543,14 @@
       <c r="H133">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="2">
+        <v>228175</v>
+      </c>
+      <c r="J133" s="2">
+        <v>195997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>41275</v>
       </c>
@@ -3226,8 +3575,14 @@
       <c r="H134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="2">
+        <v>195388</v>
+      </c>
+      <c r="J134" s="2">
+        <v>196371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>41306</v>
       </c>
@@ -3252,8 +3607,14 @@
       <c r="H135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="2">
+        <v>216021</v>
+      </c>
+      <c r="J135" s="2">
+        <v>249698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>41334</v>
       </c>
@@ -3278,8 +3639,14 @@
       <c r="H136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="2">
+        <v>269455</v>
+      </c>
+      <c r="J136" s="2">
+        <v>276479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>41365</v>
       </c>
@@ -3304,8 +3671,14 @@
       <c r="H137">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="2">
+        <v>298059</v>
+      </c>
+      <c r="J137" s="2">
+        <v>335069</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>41395</v>
       </c>
@@ -3330,8 +3703,14 @@
       <c r="H138">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="2">
+        <v>217260</v>
+      </c>
+      <c r="J138" s="2">
+        <v>278723</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>41426</v>
       </c>
@@ -3356,8 +3735,14 @@
       <c r="H139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" s="2">
+        <v>220894</v>
+      </c>
+      <c r="J139" s="2">
+        <v>399031</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>41456</v>
       </c>
@@ -3382,8 +3767,14 @@
       <c r="H140">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" s="2">
+        <v>248683</v>
+      </c>
+      <c r="J140" s="2">
+        <v>569787</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>41487</v>
       </c>
@@ -3408,8 +3799,14 @@
       <c r="H141">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="2">
+        <v>240490</v>
+      </c>
+      <c r="J141" s="2">
+        <v>642258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>41518</v>
       </c>
@@ -3434,8 +3831,14 @@
       <c r="H142">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" s="2">
+        <v>270788</v>
+      </c>
+      <c r="J142" s="2">
+        <v>483518</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>41548</v>
       </c>
@@ -3460,8 +3863,14 @@
       <c r="H143">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" s="2">
+        <v>221004</v>
+      </c>
+      <c r="J143" s="2">
+        <v>343273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>41579</v>
       </c>
@@ -3486,8 +3895,14 @@
       <c r="H144">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="2">
+        <v>236031</v>
+      </c>
+      <c r="J144" s="2">
+        <v>276428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>41609</v>
       </c>
@@ -3512,8 +3927,14 @@
       <c r="H145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="2">
+        <v>240629</v>
+      </c>
+      <c r="J145" s="2">
+        <v>276234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>41640</v>
       </c>
@@ -3538,8 +3959,14 @@
       <c r="H146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="2">
+        <v>268861</v>
+      </c>
+      <c r="J146" s="2">
+        <v>296708</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>41671</v>
       </c>
@@ -3564,8 +3991,14 @@
       <c r="H147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="2">
+        <v>305390</v>
+      </c>
+      <c r="J147" s="2">
+        <v>326295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>41699</v>
       </c>
@@ -3590,8 +4023,14 @@
       <c r="H148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="2">
+        <v>361470</v>
+      </c>
+      <c r="J148" s="2">
+        <v>423768</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>41730</v>
       </c>
@@ -3616,8 +4055,14 @@
       <c r="H149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" s="2">
+        <v>377197</v>
+      </c>
+      <c r="J149" s="2">
+        <v>531947</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>41760</v>
       </c>
@@ -3642,8 +4087,14 @@
       <c r="H150">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" s="2">
+        <v>333845</v>
+      </c>
+      <c r="J150" s="2">
+        <v>517031</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>41791</v>
       </c>
@@ -3668,8 +4119,14 @@
       <c r="H151">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" s="2">
+        <v>315166</v>
+      </c>
+      <c r="J151" s="2">
+        <v>573852</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>41821</v>
       </c>
@@ -3694,8 +4151,14 @@
       <c r="H152">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" s="2">
+        <v>343709</v>
+      </c>
+      <c r="J152" s="2">
+        <v>692053</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>41852</v>
       </c>
@@ -3720,8 +4183,14 @@
       <c r="H153">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" s="2">
+        <v>312549</v>
+      </c>
+      <c r="J153" s="2">
+        <v>757683</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>41883</v>
       </c>
@@ -3746,8 +4215,14 @@
       <c r="H154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" s="2">
+        <v>341729</v>
+      </c>
+      <c r="J154" s="2">
+        <v>564078</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>41913</v>
       </c>
@@ -3772,8 +4247,14 @@
       <c r="H155">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" s="2">
+        <v>347778</v>
+      </c>
+      <c r="J155" s="2">
+        <v>562278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>41944</v>
       </c>
@@ -3798,8 +4279,14 @@
       <c r="H156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" s="2">
+        <v>332517</v>
+      </c>
+      <c r="J156" s="2">
+        <v>460671</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>41974</v>
       </c>
@@ -3824,8 +4311,14 @@
       <c r="H157">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" s="2">
+        <v>346941</v>
+      </c>
+      <c r="J157" s="2">
+        <v>420501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>42005</v>
       </c>
@@ -3850,8 +4343,14 @@
       <c r="H158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" s="2">
+        <v>321458</v>
+      </c>
+      <c r="J158" s="2">
+        <v>394345</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>42036</v>
       </c>
@@ -3876,8 +4375,14 @@
       <c r="H159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" s="2">
+        <v>406239</v>
+      </c>
+      <c r="J159" s="2">
+        <v>516787</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>42064</v>
       </c>
@@ -3902,11 +4407,17 @@
       <c r="H160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="J160" s="5">
+        <v>515130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>42095</v>
       </c>
+      <c r="B161" s="2">
+        <v>405800</v>
+      </c>
       <c r="C161">
         <v>30</v>
       </c>
@@ -3925,17 +4436,29 @@
       <c r="H161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="J161" s="5">
+        <v>641610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>42125</v>
       </c>
+      <c r="B162" s="2">
+        <v>387200</v>
+      </c>
       <c r="C162">
         <v>31</v>
       </c>
       <c r="D162">
         <v>3</v>
       </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
       <c r="G162" s="4" t="s">
         <v>21</v>
       </c>
@@ -3943,7 +4466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>42156</v>
       </c>
@@ -3953,6 +4476,12 @@
       <c r="D163">
         <v>3</v>
       </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
       <c r="G163" s="4" t="s">
         <v>21</v>
       </c>
@@ -3960,7 +4489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>42186</v>
       </c>
@@ -3970,6 +4499,12 @@
       <c r="D164">
         <v>0</v>
       </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
       <c r="G164" s="4" t="s">
         <v>21</v>
       </c>
@@ -3977,7 +4512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>42217</v>
       </c>
@@ -3987,6 +4522,12 @@
       <c r="D165">
         <v>0</v>
       </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
       <c r="G165" s="4" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +4535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>42248</v>
       </c>
@@ -4004,6 +4545,12 @@
       <c r="D166">
         <v>2</v>
       </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
       <c r="G166" s="4" t="s">
         <v>21</v>
       </c>
@@ -4011,7 +4558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>42278</v>
       </c>
@@ -4021,6 +4568,12 @@
       <c r="D167">
         <v>0</v>
       </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
       <c r="G167" s="4" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +4581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>42309</v>
       </c>
@@ -4038,6 +4591,12 @@
       <c r="D168">
         <v>0</v>
       </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
       <c r="G168" s="4" t="s">
         <v>21</v>
       </c>
@@ -4045,7 +4604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>42339</v>
       </c>
@@ -4055,6 +4614,12 @@
       <c r="D169">
         <v>0</v>
       </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
       <c r="G169" s="4" t="s">
         <v>21</v>
       </c>
@@ -4062,7 +4627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>42370</v>
       </c>
@@ -4073,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>42401</v>
       </c>
@@ -4084,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>42430</v>
       </c>
@@ -4095,7 +4660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>42461</v>
       </c>
@@ -4106,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>42491</v>
       </c>
@@ -4117,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>42522</v>
       </c>
@@ -4128,7 +4693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>42552</v>
       </c>
@@ -4206,6 +4771,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="J2:L182">
+    <sortCondition ref="J2:J182"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/japan.tourists.number.xlsx
+++ b/japan.tourists.number.xlsx
@@ -1,57 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="165" windowWidth="25125" windowHeight="15600"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>arrival</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>holiday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newyear</t>
   </si>
   <si>
     <t>nbmonth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newyear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
     <t>month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taiwan</t>
+  </si>
+  <si>
+    <t>korea</t>
   </si>
   <si>
     <t>2002</t>
@@ -106,62 +100,55 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,20 +168,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -204,39 +203,37 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Comma 2" xfId="3"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Percent 2" xfId="4"/>
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="百分比" xfId="6" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="7"/>
+    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -286,71 +283,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,8 +480,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -520,22 +517,67 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="10" width="8.875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,23 +591,29 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>37257</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>36398</v>
       </c>
       <c r="C2">
@@ -575,17 +623,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>37288</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>33413</v>
       </c>
       <c r="C3">
@@ -595,17 +643,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>37316</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>41046</v>
       </c>
       <c r="C4">
@@ -615,17 +663,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>37347</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>46367</v>
       </c>
       <c r="C5">
@@ -635,17 +683,17 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>37377</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>37436</v>
       </c>
       <c r="C6">
@@ -655,17 +703,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>37408</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>25312</v>
       </c>
       <c r="C7">
@@ -675,17 +723,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>37438</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>39051</v>
       </c>
       <c r="C8">
@@ -695,17 +743,17 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>37469</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>44025</v>
       </c>
       <c r="C9">
@@ -715,18 +763,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>37500</v>
       </c>
-      <c r="B10" s="2">
-        <v>44752.999999999993</v>
+      <c r="B10" s="1">
+        <v>44753</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -735,17 +783,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>37530</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>44118</v>
       </c>
       <c r="C11">
@@ -755,17 +803,17 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>37561</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>33201</v>
       </c>
       <c r="C12">
@@ -775,17 +823,17 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>37591</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>27300</v>
       </c>
       <c r="C13">
@@ -795,17 +843,17 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>37622</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>40824</v>
       </c>
       <c r="C14">
@@ -815,17 +863,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>37653</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>41864</v>
       </c>
       <c r="C15">
@@ -835,17 +883,17 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>37681</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>49676</v>
       </c>
       <c r="C16">
@@ -855,17 +903,17 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>37712</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>42706</v>
       </c>
       <c r="C17">
@@ -875,17 +923,17 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>37742</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>11280</v>
       </c>
       <c r="C18">
@@ -895,17 +943,17 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>37773</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>12915</v>
       </c>
       <c r="C19">
@@ -915,17 +963,17 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>37803</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>28767</v>
       </c>
       <c r="C20">
@@ -935,17 +983,17 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>37834</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>46765</v>
       </c>
       <c r="C21">
@@ -955,17 +1003,17 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>37865</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>47303</v>
       </c>
       <c r="C22">
@@ -975,17 +1023,17 @@
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>37895</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>51007</v>
       </c>
       <c r="C23">
@@ -995,17 +1043,17 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>37926</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>42929</v>
       </c>
       <c r="C24">
@@ -1015,17 +1063,17 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>37956</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>32746</v>
       </c>
       <c r="C25">
@@ -1035,17 +1083,17 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>37987</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>59645</v>
       </c>
       <c r="C26">
@@ -1055,17 +1103,17 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>38018</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>37906</v>
       </c>
       <c r="C27">
@@ -1075,17 +1123,17 @@
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>38047</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>55370</v>
       </c>
       <c r="C28">
@@ -1095,17 +1143,17 @@
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>38078</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>56782</v>
       </c>
       <c r="C29">
@@ -1115,17 +1163,17 @@
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>38108</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>47561</v>
       </c>
       <c r="C30">
@@ -1135,17 +1183,17 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>38139</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>41477</v>
       </c>
       <c r="C31">
@@ -1155,17 +1203,17 @@
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H31">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>38169</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>56512</v>
       </c>
       <c r="C32">
@@ -1175,17 +1223,17 @@
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>38200</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>60316</v>
       </c>
       <c r="C33">
@@ -1195,17 +1243,17 @@
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H33">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>38231</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>58031</v>
       </c>
       <c r="C34">
@@ -1215,17 +1263,17 @@
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>38261</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>56111</v>
       </c>
       <c r="C35">
@@ -1235,17 +1283,17 @@
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>38292</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>47522</v>
       </c>
       <c r="C36">
@@ -1255,17 +1303,17 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H36">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>38322</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>38776</v>
       </c>
       <c r="C37">
@@ -1275,17 +1323,17 @@
         <v>0</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>38353</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>48412</v>
       </c>
       <c r="C38">
@@ -1295,17 +1343,17 @@
         <v>0</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>38384</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>51101</v>
       </c>
       <c r="C39">
@@ -1315,17 +1363,17 @@
         <v>0</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>38412</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>50649</v>
       </c>
       <c r="C40">
@@ -1335,17 +1383,17 @@
         <v>0</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>38443</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>56321</v>
       </c>
       <c r="C41">
@@ -1355,17 +1403,17 @@
         <v>0</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>38473</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>50721</v>
       </c>
       <c r="C42">
@@ -1375,17 +1423,17 @@
         <v>0</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H42">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>38504</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>44086</v>
       </c>
       <c r="C43">
@@ -1395,17 +1443,17 @@
         <v>0</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H43">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>38534</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>60844</v>
       </c>
       <c r="C44">
@@ -1415,17 +1463,17 @@
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H44">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>38565</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>65026</v>
       </c>
       <c r="C45">
@@ -1435,17 +1483,17 @@
         <v>0</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H45">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>38596</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>66216</v>
       </c>
       <c r="C46">
@@ -1455,17 +1503,17 @@
         <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H46">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>38626</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>61239</v>
       </c>
       <c r="C47">
@@ -1475,17 +1523,17 @@
         <v>0</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>38657</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>52670</v>
       </c>
       <c r="C48">
@@ -1495,17 +1543,17 @@
         <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H48">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>38687</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>45535</v>
       </c>
       <c r="C49">
@@ -1515,17 +1563,17 @@
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>38718</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>68854</v>
       </c>
       <c r="C50">
@@ -1535,17 +1583,17 @@
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>38749</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>55842</v>
       </c>
       <c r="C51">
@@ -1555,17 +1603,17 @@
         <v>0</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>38777</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>70491</v>
       </c>
       <c r="C52">
@@ -1575,17 +1623,17 @@
         <v>0</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>38808</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>73932</v>
       </c>
       <c r="C53">
@@ -1595,17 +1643,17 @@
         <v>0</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>38838</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>64298</v>
       </c>
       <c r="C54">
@@ -1615,17 +1663,17 @@
         <v>0</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H54">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>38869</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>51243</v>
       </c>
       <c r="C55">
@@ -1635,17 +1683,17 @@
         <v>0</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H55">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>38899</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>81476</v>
       </c>
       <c r="C56">
@@ -1655,17 +1703,17 @@
         <v>0</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H56">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>38930</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>81117</v>
       </c>
       <c r="C57">
@@ -1675,17 +1723,17 @@
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>38961</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>75161</v>
       </c>
       <c r="C58">
@@ -1695,17 +1743,17 @@
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H58">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>38991</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>76381</v>
       </c>
       <c r="C59">
@@ -1715,17 +1763,17 @@
         <v>0</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>39022</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>62997</v>
       </c>
       <c r="C60">
@@ -1735,17 +1783,17 @@
         <v>0</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H60">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>39052</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>49883</v>
       </c>
       <c r="C61">
@@ -1755,17 +1803,17 @@
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H61">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>39083</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>63093</v>
       </c>
       <c r="C62">
@@ -1775,17 +1823,17 @@
         <v>0</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>39114</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>75246</v>
       </c>
       <c r="C63">
@@ -1795,17 +1843,17 @@
         <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>39142</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>84323</v>
       </c>
       <c r="C64">
@@ -1815,17 +1863,17 @@
         <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>39173</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>79778</v>
       </c>
       <c r="C65">
@@ -1835,17 +1883,17 @@
         <v>0</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>39203</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>70212</v>
       </c>
       <c r="C66">
@@ -1855,17 +1903,17 @@
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H66">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>39234</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>61800</v>
       </c>
       <c r="C67">
@@ -1875,17 +1923,17 @@
         <v>0</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H67">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>39264</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>101370</v>
       </c>
       <c r="C68">
@@ -1895,17 +1943,17 @@
         <v>0</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H68">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>39295</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>99355</v>
       </c>
       <c r="C69">
@@ -1915,17 +1963,17 @@
         <v>0</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H69">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>39326</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>93068</v>
       </c>
       <c r="C70">
@@ -1935,17 +1983,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H70">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>39356</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>91186</v>
       </c>
       <c r="C71">
@@ -1955,17 +2003,17 @@
         <v>0</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H71">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>39387</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>69597</v>
       </c>
       <c r="C72">
@@ -1975,17 +2023,17 @@
         <v>0</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H72">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>39417</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>53411</v>
       </c>
       <c r="C73">
@@ -1995,17 +2043,17 @@
         <v>0</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H73">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>39448</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>84038</v>
       </c>
       <c r="C74">
@@ -2015,17 +2063,17 @@
         <v>0</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>39479</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>85134</v>
       </c>
       <c r="C75">
@@ -2035,17 +2083,17 @@
         <v>0</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>39508</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>90850</v>
       </c>
       <c r="C76">
@@ -2055,17 +2103,17 @@
         <v>0</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>39539</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>103013</v>
       </c>
       <c r="C77">
@@ -2075,17 +2123,17 @@
         <v>0</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H77">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>39569</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>74637</v>
       </c>
       <c r="C78">
@@ -2095,17 +2143,17 @@
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H78">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>39600</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>61355</v>
       </c>
       <c r="C79">
@@ -2115,17 +2163,17 @@
         <v>0</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H79">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1">
+    <row r="80" spans="1:10">
+      <c r="A80" s="3">
         <v>39630</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>101192</v>
       </c>
       <c r="C80">
@@ -2135,17 +2183,23 @@
         <v>0</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1">
+      <c r="I80" s="1">
+        <v>30323</v>
+      </c>
+      <c r="J80" s="1">
+        <v>101061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="3">
         <v>39661</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>92976</v>
       </c>
       <c r="C81">
@@ -2155,17 +2209,23 @@
         <v>0</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1">
+      <c r="I81" s="1">
+        <v>29281</v>
+      </c>
+      <c r="J81" s="1">
+        <v>115042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="3">
         <v>39692</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>93921</v>
       </c>
       <c r="C82">
@@ -2175,17 +2235,23 @@
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1">
+      <c r="I82" s="1">
+        <v>33251</v>
+      </c>
+      <c r="J82" s="1">
+        <v>112988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="3">
         <v>39722</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>86570</v>
       </c>
       <c r="C83">
@@ -2195,17 +2261,23 @@
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1">
+      <c r="I83" s="1">
+        <v>34780</v>
+      </c>
+      <c r="J83" s="1">
+        <v>104710</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="3">
         <v>39753</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>73131</v>
       </c>
       <c r="C84">
@@ -2215,17 +2287,23 @@
         <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1">
+      <c r="I84" s="1">
+        <v>35238</v>
+      </c>
+      <c r="J84" s="1">
+        <v>88916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="3">
         <v>39783</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>53599</v>
       </c>
       <c r="C85">
@@ -2235,17 +2313,23 @@
         <v>0</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H85">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1">
+      <c r="I85" s="1">
+        <v>35114</v>
+      </c>
+      <c r="J85" s="1">
+        <v>85921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="3">
         <v>39814</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>110262</v>
       </c>
       <c r="C86">
@@ -2255,17 +2339,23 @@
         <v>0</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1">
+      <c r="I86" s="1">
+        <v>43995</v>
+      </c>
+      <c r="J86" s="1">
+        <v>93007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="3">
         <v>39845</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>62981</v>
       </c>
       <c r="C87">
@@ -2275,17 +2365,23 @@
         <v>0</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1">
+      <c r="I87" s="1">
+        <v>42248</v>
+      </c>
+      <c r="J87" s="1">
+        <v>127979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="3">
         <v>39873</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>100951</v>
       </c>
       <c r="C88">
@@ -2295,17 +2391,23 @@
         <v>0</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1">
+      <c r="I88" s="1">
+        <v>87002</v>
+      </c>
+      <c r="J88" s="1">
+        <v>111915</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="3">
         <v>39904</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>106816</v>
       </c>
       <c r="C89">
@@ -2315,17 +2417,23 @@
         <v>0</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1">
+      <c r="I89" s="1">
+        <v>131464</v>
+      </c>
+      <c r="J89" s="1">
+        <v>107872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="3">
         <v>39934</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>60530</v>
       </c>
       <c r="C90">
@@ -2335,17 +2443,23 @@
         <v>0</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1">
+      <c r="I90" s="1">
+        <v>110244</v>
+      </c>
+      <c r="J90" s="1">
+        <v>86392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="3">
         <v>39965</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>36597</v>
       </c>
       <c r="C91">
@@ -2355,17 +2469,23 @@
         <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1">
+      <c r="I91" s="1">
+        <v>57472</v>
+      </c>
+      <c r="J91" s="1">
+        <v>77830</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="3">
         <v>39995</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>67944</v>
       </c>
       <c r="C92">
@@ -2375,17 +2495,23 @@
         <v>0</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1">
+      <c r="I92" s="1">
+        <v>70157</v>
+      </c>
+      <c r="J92" s="1">
+        <v>107490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="3">
         <v>40026</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>109017</v>
       </c>
       <c r="C93">
@@ -2395,17 +2521,23 @@
         <v>0</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1">
+      <c r="I93" s="1">
+        <v>80883</v>
+      </c>
+      <c r="J93" s="1">
+        <v>160424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="3">
         <v>40057</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>98697</v>
       </c>
       <c r="C94">
@@ -2415,17 +2547,23 @@
         <v>0</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1">
+      <c r="I94" s="1">
+        <v>64386</v>
+      </c>
+      <c r="J94" s="1">
+        <v>126793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="3">
         <v>40087</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>108301</v>
       </c>
       <c r="C95">
@@ -2435,17 +2573,23 @@
         <v>0</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1">
+      <c r="I95" s="1">
+        <v>78175</v>
+      </c>
+      <c r="J95" s="1">
+        <v>138898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="3">
         <v>40118</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>81462</v>
       </c>
       <c r="C96">
@@ -2455,17 +2599,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1">
+      <c r="I96" s="1">
+        <v>113807</v>
+      </c>
+      <c r="J96" s="1">
+        <v>102329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="3">
         <v>40148</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>62527</v>
       </c>
       <c r="C97">
@@ -2475,17 +2625,23 @@
         <v>0</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H97">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1">
+      <c r="I97" s="1">
+        <v>92290</v>
+      </c>
+      <c r="J97" s="1">
+        <v>101388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="3">
         <v>40179</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>92120</v>
       </c>
       <c r="C98">
@@ -2495,17 +2651,23 @@
         <v>0</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1">
+      <c r="I98" s="1">
+        <v>86891</v>
+      </c>
+      <c r="J98" s="1">
+        <v>91252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="3">
         <v>40210</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>121494</v>
       </c>
       <c r="C99">
@@ -2515,17 +2677,23 @@
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1">
+      <c r="I99" s="1">
+        <v>107628</v>
+      </c>
+      <c r="J99" s="1">
+        <v>140571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="3">
         <v>40238</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>123314</v>
       </c>
       <c r="C100">
@@ -2535,17 +2703,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1">
+      <c r="I100" s="1">
+        <v>149617</v>
+      </c>
+      <c r="J100" s="1">
+        <v>141457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="3">
         <v>40269</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>150788</v>
       </c>
       <c r="C101">
@@ -2555,17 +2729,23 @@
         <v>0</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1">
+      <c r="I101" s="1">
+        <v>180915</v>
+      </c>
+      <c r="J101" s="1">
+        <v>147680</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="3">
         <v>40299</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>112558</v>
       </c>
       <c r="C102">
@@ -2575,17 +2755,23 @@
         <v>0</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1">
+      <c r="I102" s="1">
+        <v>179394</v>
+      </c>
+      <c r="J102" s="1">
+        <v>154066</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="3">
         <v>40330</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>103706</v>
       </c>
       <c r="C103">
@@ -2595,17 +2781,23 @@
         <v>0</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1">
+      <c r="I103" s="1">
+        <v>135603</v>
+      </c>
+      <c r="J103" s="1">
+        <v>150119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="3">
         <v>40360</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>164944</v>
       </c>
       <c r="C104">
@@ -2615,17 +2807,23 @@
         <v>0</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1">
+      <c r="I104" s="1">
+        <v>129160</v>
+      </c>
+      <c r="J104" s="1">
+        <v>195188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="3">
         <v>40391</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>171503</v>
       </c>
       <c r="C105">
@@ -2635,17 +2833,23 @@
         <v>0</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H105">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1">
+      <c r="I105" s="1">
+        <v>118616</v>
+      </c>
+      <c r="J105" s="1">
+        <v>241987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="3">
         <v>40422</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>137333</v>
       </c>
       <c r="C106">
@@ -2655,17 +2859,23 @@
         <v>0</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1">
+      <c r="I106" s="1">
+        <v>105707</v>
+      </c>
+      <c r="J106" s="1">
+        <v>176196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="3">
         <v>40452</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>106237</v>
       </c>
       <c r="C107">
@@ -2675,17 +2885,23 @@
         <v>0</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1">
+      <c r="I107" s="1">
+        <v>150221</v>
+      </c>
+      <c r="J107" s="1">
+        <v>181428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="3">
         <v>40483</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>68385</v>
       </c>
       <c r="C108">
@@ -2695,17 +2911,23 @@
         <v>0</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H108">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1">
+      <c r="I108" s="1">
+        <v>165065</v>
+      </c>
+      <c r="J108" s="1">
+        <v>136152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="3">
         <v>40513</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>60493</v>
       </c>
       <c r="C109">
@@ -2715,17 +2937,23 @@
         <v>0</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H109">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1">
+      <c r="I109" s="1">
+        <v>121918</v>
+      </c>
+      <c r="J109" s="1">
+        <v>119061</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="3">
         <v>40544</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>99131</v>
       </c>
       <c r="C110">
@@ -2735,17 +2963,23 @@
         <v>0</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="1">
+      <c r="I110" s="1">
+        <v>101354</v>
+      </c>
+      <c r="J110" s="1">
+        <v>113927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="3">
         <v>40575</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>105362</v>
       </c>
       <c r="C111">
@@ -2755,17 +2989,23 @@
         <v>0</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="1">
+      <c r="I111" s="1">
+        <v>115845</v>
+      </c>
+      <c r="J111" s="1">
+        <v>157019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="3">
         <v>40603</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>62450</v>
       </c>
       <c r="C112">
@@ -2775,17 +3015,23 @@
         <v>0</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="1">
+      <c r="I112" s="1">
+        <v>153649</v>
+      </c>
+      <c r="J112" s="1">
+        <v>163261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="3">
         <v>40634</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>76164</v>
       </c>
       <c r="C113">
@@ -2795,17 +3041,23 @@
         <v>0</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="1">
+      <c r="I113" s="1">
+        <v>193457</v>
+      </c>
+      <c r="J113" s="1">
+        <v>153875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="3">
         <v>40664</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>58608</v>
       </c>
       <c r="C114">
@@ -2815,17 +3067,23 @@
         <v>0</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="1">
+      <c r="I114" s="1">
+        <v>150479</v>
+      </c>
+      <c r="J114" s="1">
+        <v>152347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="3">
         <v>40695</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>61419</v>
       </c>
       <c r="C115">
@@ -2835,17 +3093,23 @@
         <v>0</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="1">
+      <c r="I115" s="1">
+        <v>114435</v>
+      </c>
+      <c r="J115" s="1">
+        <v>179508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="3">
         <v>40725</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>86963</v>
       </c>
       <c r="C116">
@@ -2855,17 +3119,23 @@
         <v>0</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="1">
+      <c r="I116" s="1">
+        <v>135968</v>
+      </c>
+      <c r="J116" s="1">
+        <v>244573</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="3">
         <v>40756</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>102640</v>
       </c>
       <c r="C117">
@@ -2875,17 +3145,23 @@
         <v>0</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="1">
+      <c r="I117" s="1">
+        <v>138673</v>
+      </c>
+      <c r="J117" s="1">
+        <v>276299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="3">
         <v>40787</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>112493</v>
       </c>
       <c r="C118">
@@ -2895,17 +3171,23 @@
         <v>0</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="1">
+      <c r="I118" s="1">
+        <v>122574</v>
+      </c>
+      <c r="J118" s="1">
+        <v>231462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="3">
         <v>40817</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>106174</v>
       </c>
       <c r="C119">
@@ -2915,17 +3197,23 @@
         <v>0</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="1">
+      <c r="I119" s="1">
+        <v>163290</v>
+      </c>
+      <c r="J119" s="1">
+        <v>214681</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="3">
         <v>40848</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>92154</v>
       </c>
       <c r="C120">
@@ -2935,17 +3223,23 @@
         <v>0</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H120">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1">
+      <c r="I120" s="1">
+        <v>213144</v>
+      </c>
+      <c r="J120" s="1">
+        <v>174164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="3">
         <v>40878</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>79688</v>
       </c>
       <c r="C121">
@@ -2955,17 +3249,23 @@
         <v>0</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H121">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1">
+      <c r="I121" s="1">
+        <v>181317</v>
+      </c>
+      <c r="J121" s="1">
+        <v>159080</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="3">
         <v>40909</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>136665</v>
       </c>
       <c r="C122">
@@ -2975,17 +3275,23 @@
         <v>0</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1">
+      <c r="I122" s="1">
+        <v>140432</v>
+      </c>
+      <c r="J122" s="1">
+        <v>167022</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="3">
         <v>40940</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>81966</v>
       </c>
       <c r="C123">
@@ -2995,17 +3301,23 @@
         <v>0</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1">
+      <c r="I123" s="1">
+        <v>163442</v>
+      </c>
+      <c r="J123" s="1">
+        <v>173790</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="3">
         <v>40969</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>129302</v>
       </c>
       <c r="C124">
@@ -3015,17 +3327,23 @@
         <v>0</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1">
+      <c r="I124" s="1">
+        <v>253205</v>
+      </c>
+      <c r="J124" s="1">
+        <v>183691</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="3">
         <v>41000</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>148793</v>
       </c>
       <c r="C125">
@@ -3035,17 +3353,23 @@
         <v>0</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1">
+      <c r="I125" s="1">
+        <v>278715</v>
+      </c>
+      <c r="J125" s="1">
+        <v>222114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="3">
         <v>41030</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>112152</v>
       </c>
       <c r="C126">
@@ -3055,17 +3379,23 @@
         <v>0</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="1">
+      <c r="I126" s="1">
+        <v>228607</v>
+      </c>
+      <c r="J126" s="1">
+        <v>210439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="3">
         <v>41061</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>125983</v>
       </c>
       <c r="C127">
@@ -3075,17 +3405,23 @@
         <v>0</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="1">
+      <c r="I127" s="1">
+        <v>199642</v>
+      </c>
+      <c r="J127" s="1">
+        <v>234482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="3">
         <v>41091</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>204270</v>
       </c>
       <c r="C128">
@@ -3095,17 +3431,23 @@
         <v>0</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="1">
+      <c r="I128" s="1">
+        <v>235447</v>
+      </c>
+      <c r="J128" s="1">
+        <v>322917</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3">
         <v>41122</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>190254</v>
       </c>
       <c r="C129">
@@ -3115,17 +3457,23 @@
         <v>0</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="1">
+      <c r="I129" s="1">
+        <v>205002</v>
+      </c>
+      <c r="J129" s="1">
+        <v>359065</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3">
         <v>41153</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>121673</v>
       </c>
       <c r="C130">
@@ -3135,17 +3483,23 @@
         <v>0</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H130">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="1">
+      <c r="I130" s="1">
+        <v>185922</v>
+      </c>
+      <c r="J130" s="1">
+        <v>283402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="3">
         <v>41183</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>69713</v>
       </c>
       <c r="C131">
@@ -3155,17 +3509,23 @@
         <v>0</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="1">
+      <c r="I131" s="1">
+        <v>224872</v>
+      </c>
+      <c r="J131" s="1">
+        <v>279440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="3">
         <v>41214</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>51993</v>
       </c>
       <c r="C132">
@@ -3175,17 +3535,23 @@
         <v>0</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H132">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="1">
+      <c r="I132" s="1">
+        <v>242967</v>
+      </c>
+      <c r="J132" s="1">
+        <v>204533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="3">
         <v>41244</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>52336</v>
       </c>
       <c r="C133">
@@ -3195,17 +3561,23 @@
         <v>0</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H133">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="1">
+      <c r="I133" s="1">
+        <v>228175</v>
+      </c>
+      <c r="J133" s="1">
+        <v>195997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="3">
         <v>41275</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>72301</v>
       </c>
       <c r="C134">
@@ -3221,17 +3593,23 @@
         <v>0</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="1">
+      <c r="I134" s="1">
+        <v>195388</v>
+      </c>
+      <c r="J134" s="1">
+        <v>196371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="3">
         <v>41306</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>80903</v>
       </c>
       <c r="C135">
@@ -3247,17 +3625,23 @@
         <v>1</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="1">
+      <c r="I135" s="1">
+        <v>216021</v>
+      </c>
+      <c r="J135" s="1">
+        <v>249698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="3">
         <v>41334</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>102265</v>
       </c>
       <c r="C136">
@@ -3273,17 +3657,23 @@
         <v>0</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="1">
+      <c r="I136" s="1">
+        <v>269455</v>
+      </c>
+      <c r="J136" s="1">
+        <v>276479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="3">
         <v>41365</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>100160</v>
       </c>
       <c r="C137">
@@ -3299,17 +3689,23 @@
         <v>1</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H137">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="1">
+      <c r="I137" s="1">
+        <v>298059</v>
+      </c>
+      <c r="J137" s="1">
+        <v>335069</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="3">
         <v>41395</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>81571</v>
       </c>
       <c r="C138">
@@ -3325,17 +3721,23 @@
         <v>0</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H138">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="1">
+      <c r="I138" s="1">
+        <v>217260</v>
+      </c>
+      <c r="J138" s="1">
+        <v>278723</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="3">
         <v>41426</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>98996</v>
       </c>
       <c r="C139">
@@ -3351,17 +3753,23 @@
         <v>0</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="1">
+      <c r="I139" s="1">
+        <v>220894</v>
+      </c>
+      <c r="J139" s="1">
+        <v>399031</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="3">
         <v>41456</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>139905</v>
       </c>
       <c r="C140">
@@ -3377,17 +3785,23 @@
         <v>1</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H140">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="1">
+      <c r="I140" s="1">
+        <v>248683</v>
+      </c>
+      <c r="J140" s="1">
+        <v>569787</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="3">
         <v>41487</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>162288</v>
       </c>
       <c r="C141">
@@ -3403,17 +3817,23 @@
         <v>1</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H141">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="1">
+      <c r="I141" s="1">
+        <v>240490</v>
+      </c>
+      <c r="J141" s="1">
+        <v>642258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="3">
         <v>41518</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>156201</v>
       </c>
       <c r="C142">
@@ -3429,17 +3849,23 @@
         <v>0</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H142">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="1">
+      <c r="I142" s="1">
+        <v>270788</v>
+      </c>
+      <c r="J142" s="1">
+        <v>483518</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="3">
         <v>41548</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>121335</v>
       </c>
       <c r="C143">
@@ -3455,17 +3881,23 @@
         <v>0</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H143">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="1">
+      <c r="I143" s="1">
+        <v>221004</v>
+      </c>
+      <c r="J143" s="1">
+        <v>343273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="3">
         <v>41579</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>101940</v>
       </c>
       <c r="C144">
@@ -3481,17 +3913,23 @@
         <v>0</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H144">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="1">
+      <c r="I144" s="1">
+        <v>236031</v>
+      </c>
+      <c r="J144" s="1">
+        <v>276428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="3">
         <v>41609</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>96572</v>
       </c>
       <c r="C145">
@@ -3507,17 +3945,23 @@
         <v>0</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="1">
+      <c r="I145" s="1">
+        <v>240629</v>
+      </c>
+      <c r="J145" s="1">
+        <v>276234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="3">
         <v>41640</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>155605</v>
       </c>
       <c r="C146">
@@ -3533,17 +3977,23 @@
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1">
+      <c r="I146" s="1">
+        <v>268861</v>
+      </c>
+      <c r="J146" s="1">
+        <v>296708</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="3">
         <v>41671</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>138236</v>
       </c>
       <c r="C147">
@@ -3559,17 +4009,23 @@
         <v>0</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="1">
+      <c r="I147" s="1">
+        <v>305390</v>
+      </c>
+      <c r="J147" s="1">
+        <v>326295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="3">
         <v>41699</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>184064</v>
       </c>
       <c r="C148">
@@ -3585,17 +4041,23 @@
         <v>0</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="1">
+      <c r="I148" s="1">
+        <v>361470</v>
+      </c>
+      <c r="J148" s="1">
+        <v>423768</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="3">
         <v>41730</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>190558</v>
       </c>
       <c r="C149">
@@ -3611,17 +4073,23 @@
         <v>1</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="1">
+      <c r="I149" s="1">
+        <v>377197</v>
+      </c>
+      <c r="J149" s="1">
+        <v>531947</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="3">
         <v>41760</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>165784</v>
       </c>
       <c r="C150">
@@ -3637,17 +4105,23 @@
         <v>0</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H150">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="1">
+      <c r="I150" s="1">
+        <v>333845</v>
+      </c>
+      <c r="J150" s="1">
+        <v>517031</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="3">
         <v>41791</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>173046</v>
       </c>
       <c r="C151">
@@ -3663,17 +4137,23 @@
         <v>0</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H151">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="1">
+      <c r="I151" s="1">
+        <v>315166</v>
+      </c>
+      <c r="J151" s="1">
+        <v>573852</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="3">
         <v>41821</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>281309</v>
       </c>
       <c r="C152">
@@ -3689,17 +4169,23 @@
         <v>1</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H152">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="1">
+      <c r="I152" s="1">
+        <v>343709</v>
+      </c>
+      <c r="J152" s="1">
+        <v>692053</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="3">
         <v>41852</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>253802</v>
       </c>
       <c r="C153">
@@ -3715,17 +4201,23 @@
         <v>1</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H153">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="1">
+      <c r="I153" s="1">
+        <v>312549</v>
+      </c>
+      <c r="J153" s="1">
+        <v>757683</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="3">
         <v>41883</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>246105</v>
       </c>
       <c r="C154">
@@ -3741,17 +4233,23 @@
         <v>0</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="1">
+      <c r="I154" s="1">
+        <v>341729</v>
+      </c>
+      <c r="J154" s="1">
+        <v>564078</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="3">
         <v>41913</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>223214</v>
       </c>
       <c r="C155">
@@ -3767,17 +4265,23 @@
         <v>0</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H155">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="1">
+      <c r="I155" s="1">
+        <v>347778</v>
+      </c>
+      <c r="J155" s="1">
+        <v>562278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="3">
         <v>41944</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>207462</v>
       </c>
       <c r="C156">
@@ -3793,17 +4297,23 @@
         <v>0</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="1">
+      <c r="I156" s="1">
+        <v>332517</v>
+      </c>
+      <c r="J156" s="1">
+        <v>460671</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="3">
         <v>41974</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>190000</v>
       </c>
       <c r="C157">
@@ -3819,17 +4329,23 @@
         <v>0</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H157">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="1">
+      <c r="I157" s="1">
+        <v>346941</v>
+      </c>
+      <c r="J157" s="1">
+        <v>420501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="3">
         <v>42005</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>226300</v>
       </c>
       <c r="C158">
@@ -3845,17 +4361,23 @@
         <v>0</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="1">
+      <c r="I158" s="1">
+        <v>321458</v>
+      </c>
+      <c r="J158" s="1">
+        <v>394345</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="3">
         <v>42036</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>359100</v>
       </c>
       <c r="C159">
@@ -3871,17 +4393,23 @@
         <v>1</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="1">
+      <c r="I159" s="1">
+        <v>406239</v>
+      </c>
+      <c r="J159" s="1">
+        <v>516787</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="3">
         <v>42064</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>338200</v>
       </c>
       <c r="C160">
@@ -3897,15 +4425,21 @@
         <v>0</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="1">
+      <c r="J160" s="5">
+        <v>515130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="3">
         <v>42095</v>
+      </c>
+      <c r="B161" s="1">
+        <v>405800</v>
       </c>
       <c r="C161">
         <v>30</v>
@@ -3920,15 +4454,21 @@
         <v>1</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="1">
+      <c r="J161" s="5">
+        <v>641610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="3">
         <v>42125</v>
+      </c>
+      <c r="B162" s="1">
+        <v>387200</v>
       </c>
       <c r="C162">
         <v>31</v>
@@ -3936,16 +4476,28 @@
       <c r="D162">
         <v>3</v>
       </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
       <c r="G162" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="1">
+      <c r="J162" s="5">
+        <v>618083</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="3">
         <v>42156</v>
+      </c>
+      <c r="B163" s="1">
+        <v>462300</v>
       </c>
       <c r="C163">
         <v>30</v>
@@ -3953,15 +4505,24 @@
       <c r="D163">
         <v>3</v>
       </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
       <c r="G163" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H163">
         <v>6</v>
       </c>
+      <c r="J163" s="5">
+        <v>315095</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="1">
+      <c r="A164" s="3">
         <v>42186</v>
       </c>
       <c r="C164">
@@ -3970,15 +4531,21 @@
       <c r="D164">
         <v>0</v>
       </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
       <c r="G164" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H164">
         <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="1">
+      <c r="A165" s="3">
         <v>42217</v>
       </c>
       <c r="C165">
@@ -3987,15 +4554,21 @@
       <c r="D165">
         <v>0</v>
       </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
       <c r="G165" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H165">
         <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="1">
+      <c r="A166" s="3">
         <v>42248</v>
       </c>
       <c r="C166">
@@ -4004,15 +4577,21 @@
       <c r="D166">
         <v>2</v>
       </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
       <c r="G166" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H166">
         <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="1">
+      <c r="A167" s="3">
         <v>42278</v>
       </c>
       <c r="C167">
@@ -4021,15 +4600,21 @@
       <c r="D167">
         <v>0</v>
       </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
       <c r="G167" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H167">
         <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="1">
+      <c r="A168" s="3">
         <v>42309</v>
       </c>
       <c r="C168">
@@ -4038,15 +4623,21 @@
       <c r="D168">
         <v>0</v>
       </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
       <c r="G168" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H168">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="1">
+      <c r="A169" s="3">
         <v>42339</v>
       </c>
       <c r="C169">
@@ -4055,202 +4646,202 @@
       <c r="D169">
         <v>0</v>
       </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
       <c r="G169" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H169">
         <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="1">
+      <c r="A170" s="3">
         <v>42370</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="1">
+      <c r="A171" s="3">
         <v>42401</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="1">
+      <c r="A172" s="3">
         <v>42430</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="1">
+      <c r="A173" s="3">
         <v>42461</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H173">
         <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="1">
+      <c r="A174" s="3">
         <v>42491</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H174">
         <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="1">
+      <c r="A175" s="3">
         <v>42522</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H175">
         <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="1">
+      <c r="A176" s="3">
         <v>42552</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H176">
         <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="1">
+      <c r="A177" s="3">
         <v>42583</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H177">
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="1">
+      <c r="A178" s="3">
         <v>42614</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H178">
         <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="1">
+      <c r="A179" s="3">
         <v>42644</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H179">
         <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="1">
+      <c r="A180" s="3">
         <v>42675</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H180">
         <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="1">
+      <c r="A181" s="3">
         <v>42705</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H181">
         <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="1">
+      <c r="A182" s="3">
         <v>42736</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <sortState caseSensitive="0" columnSort="0" ref="J2:L182">
+    <sortCondition descending="0" ref="J2:J182"/>
+  </sortState>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/japan.tourists.number.xlsx
+++ b/japan.tourists.number.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -99,16 +99,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -118,36 +115,29 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -168,38 +158,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -207,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -219,21 +191,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Percent 2" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="百分比" xfId="6" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="7"/>
-    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -532,6 +505,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -564,12 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+      <selection activeCell="L163" sqref="L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -609,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>37257</v>
       </c>
@@ -629,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>37288</v>
       </c>
@@ -649,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>37316</v>
       </c>
@@ -669,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>37347</v>
       </c>
@@ -689,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>37377</v>
       </c>
@@ -709,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>37408</v>
       </c>
@@ -729,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>37438</v>
       </c>
@@ -749,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>37469</v>
       </c>
@@ -769,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>37500</v>
       </c>
@@ -789,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>37530</v>
       </c>
@@ -809,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>37561</v>
       </c>
@@ -829,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>37591</v>
       </c>
@@ -849,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>37622</v>
       </c>
@@ -869,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>37653</v>
       </c>
@@ -889,7 +862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>37681</v>
       </c>
@@ -1869,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65" s="3">
         <v>39173</v>
       </c>
@@ -1889,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:10">
       <c r="A66" s="3">
         <v>39203</v>
       </c>
@@ -1909,7 +1882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67" s="3">
         <v>39234</v>
       </c>
@@ -1929,7 +1902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:10">
       <c r="A68" s="3">
         <v>39264</v>
       </c>
@@ -1949,7 +1922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" s="3">
         <v>39295</v>
       </c>
@@ -1969,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="3">
         <v>39326</v>
       </c>
@@ -1989,7 +1962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="3">
         <v>39356</v>
       </c>
@@ -2009,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" s="3">
         <v>39387</v>
       </c>
@@ -2029,7 +2002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73" s="3">
         <v>39417</v>
       </c>
@@ -2049,7 +2022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:10">
       <c r="A74" s="3">
         <v>39448</v>
       </c>
@@ -2069,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="3">
         <v>39479</v>
       </c>
@@ -2089,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:10">
       <c r="A76" s="3">
         <v>39508</v>
       </c>
@@ -2109,7 +2082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77" s="3">
         <v>39539</v>
       </c>
@@ -2129,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78" s="3">
         <v>39569</v>
       </c>
@@ -2149,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" s="3">
         <v>39600</v>
       </c>
@@ -4521,10 +4494,13 @@
         <v>315095</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:10">
       <c r="A164" s="3">
         <v>42186</v>
       </c>
+      <c r="B164" s="1">
+        <v>576900</v>
+      </c>
       <c r="C164">
         <v>31</v>
       </c>
@@ -4543,8 +4519,11 @@
       <c r="H164">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="J164" s="5">
+        <v>255632</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="3">
         <v>42217</v>
       </c>
@@ -4567,7 +4546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:10">
       <c r="A166" s="3">
         <v>42248</v>
       </c>
@@ -4590,7 +4569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:10">
       <c r="A167" s="3">
         <v>42278</v>
       </c>
@@ -4613,7 +4592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:10">
       <c r="A168" s="3">
         <v>42309</v>
       </c>
@@ -4636,7 +4615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:10">
       <c r="A169" s="3">
         <v>42339</v>
       </c>
@@ -4659,7 +4638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:10">
       <c r="A170" s="3">
         <v>42370</v>
       </c>
@@ -4670,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:10">
       <c r="A171" s="3">
         <v>42401</v>
       </c>
@@ -4681,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:10">
       <c r="A172" s="3">
         <v>42430</v>
       </c>
@@ -4692,7 +4671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:10">
       <c r="A173" s="3">
         <v>42461</v>
       </c>
@@ -4703,7 +4682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:10">
       <c r="A174" s="3">
         <v>42491</v>
       </c>
@@ -4714,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:10">
       <c r="A175" s="3">
         <v>42522</v>
       </c>
@@ -4725,7 +4704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:10">
       <c r="A176" s="3">
         <v>42552</v>
       </c>
@@ -4803,45 +4782,39 @@
       </c>
     </row>
   </sheetData>
-  <sortState caseSensitive="0" columnSort="0" ref="J2:L182">
-    <sortCondition descending="0" ref="J2:J182"/>
+  <sortState ref="J2:L182">
+    <sortCondition ref="J2:J182"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>